--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T12:30:17+00:00</t>
+    <t>2025-03-25T12:34:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil av Bundle for Legemiddelregisteret. Støtter bare batch-type og POST-operasjoner, med begrensninger på tillatte ressurstyper.</t>
+    <t>Profil av Bundle for Legemiddelregisteret. Støtter bare transaction-type og POST-operasjoner, med begrensninger på tillatte ressurstyper.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -383,16 +383,16 @@
     <t>Bundle.type</t>
   </si>
   <si>
-    <t>Må være av type batch</t>
-  </si>
-  <si>
-    <t>Angir at bundle må være av type batch</t>
+    <t>Må være av type transaction</t>
+  </si>
+  <si>
+    <t>Angir at bundle må være av type transaction</t>
   </si>
   <si>
     <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
   </si>
   <si>
-    <t>batch</t>
+    <t>transaction</t>
   </si>
   <si>
     <t>required</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:34:21+00:00</t>
+    <t>2025-03-25T12:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:47:29+00:00</t>
+    <t>2025-03-25T12:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
